--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed1/result_data_RandomForest.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.6891</v>
+        <v>8.6686</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.00449999999999</v>
+        <v>-12.14119999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.6577</v>
+        <v>5.419300000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6132</v>
+        <v>-10.8872</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.082999999999999</v>
+        <v>5.014599999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.62269999999999</v>
+        <v>-12.43629999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.3066</v>
+        <v>-11.05770000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.35509999999999</v>
+        <v>-12.65229999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.280099999999999</v>
+        <v>6.248500000000003</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.186800000000005</v>
+        <v>5.110100000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.3207</v>
+        <v>-13.2057</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.345899999999999</v>
+        <v>6.689999999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,10 +992,10 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.011299999999995</v>
+        <v>8.993399999999994</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.81780000000001</v>
+        <v>-12.801</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.4383</v>
+        <v>-11.4128</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.0573</v>
+        <v>-11.87709999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.4821</v>
+        <v>-12.3825</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.327099999999997</v>
+        <v>5.226199999999995</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.791999999999994</v>
+        <v>4.725899999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.3734</v>
+        <v>-10.3483</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.79489999999999</v>
+        <v>-11.06029999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>6.104999999999999</v>
+        <v>5.927999999999995</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.37409999999999</v>
+        <v>-12.3823</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.26069999999999</v>
+        <v>-14.52159999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.70419999999999</v>
+        <v>-13.51679999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.62799999999999</v>
+        <v>-10.56099999999999</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>4.708000000000001</v>
+        <v>4.7643</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
